--- a/exercises/2.42.xlsx
+++ b/exercises/2.42.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="チェスの駒の動き" sheetId="4" r:id="rId1"/>
     <sheet name="safe 手続きの機能" sheetId="5" r:id="rId2"/>
     <sheet name="safe 手続き例" sheetId="6" r:id="rId3"/>
+    <sheet name="プロセス図" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,13 +27,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
   <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 3 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 3 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 3 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 3 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 4 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 4 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 4 2 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 4 2 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 4 2 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1 4 2 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 1 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 1 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 1 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 1 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 4 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 4 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 4 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 4 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 1 4 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1 3 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1 3 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1 3 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 1 3 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 2 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 2 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 2 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 2 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 4)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -106,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +369,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,19 +1682,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>対角線上にないか</a:t>
+            <a:t>が対角線上にないか</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -2009,19 +2237,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>対角線上にないか</a:t>
+            <a:t>が対角線上にないか</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -2582,6 +2798,151 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>列目</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2686050" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412750" y="254000"/>
+          <a:ext cx="2686050" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4x4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のチェス盤でのプロセス図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3797300" cy="476250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="406400" y="520700"/>
+          <a:ext cx="3797300" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>回答は以下の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>つ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(2 4 1 3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(3 1 4 2)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3020,7 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -3322,4 +3683,469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:M53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.90625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="3.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="11" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exercises/2.42.xlsx
+++ b/exercises/2.42.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190"/>
   </bookViews>
   <sheets>
-    <sheet name="チェスの駒の動き" sheetId="4" r:id="rId1"/>
-    <sheet name="safe 手続きの機能" sheetId="5" r:id="rId2"/>
-    <sheet name="safe 手続き例" sheetId="6" r:id="rId3"/>
-    <sheet name="プロセス図" sheetId="7" r:id="rId4"/>
+    <sheet name="図2.8" sheetId="7" r:id="rId1"/>
+    <sheet name="チェスの駒の動き" sheetId="4" r:id="rId2"/>
+    <sheet name="safe 手続きの機能" sheetId="5" r:id="rId3"/>
+    <sheet name="safe 手続き例" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="3">
   <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
@@ -37,239 +37,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 3 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 3 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 3 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 3 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 4 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 4 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 4 2 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 4 2 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 4 2 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1 4 2 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 1 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 1 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 1 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 1 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2 4 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 4 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 4 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 4 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 1 4 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1 3 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1 3 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1 3 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 1 3 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 2 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 2 2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 2 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 2 4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 4)</t>
+    <t>●</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -343,7 +111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,9 +137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2798,151 +2563,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>列目</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2686050" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="412750" y="254000"/>
-          <a:ext cx="2686050" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>4x4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のチェス盤でのプロセス図</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3797300" cy="476250"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="406400" y="520700"/>
-          <a:ext cx="3797300" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>回答は以下の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>つ</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>(2 4 1 3)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>(3 1 4 2)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3214,6 +2834,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:J10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.90625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="3.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="5"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AB11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3377,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:J16"/>
   <sheetViews>
@@ -3482,7 +3217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J20"/>
   <sheetViews>
@@ -3683,469 +3418,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:M53"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.90625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="3.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="11" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="9"/>
-      <c r="J26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G43" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G44" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J45" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J47" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G49" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G50" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G51" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>